--- a/data/trans_bre/P41_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,81</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>-18,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47,27%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38,88%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 49,64</t>
+          <t>-6,94; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 37,64</t>
+          <t>-9,98; 7,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 14,03</t>
+          <t>-10,96; 4,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 20,22</t>
+          <t>-8,95; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 54,19</t>
+          <t>-4,94; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 139,7</t>
+          <t>-5,68; 13,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 78,19</t>
+          <t>-4,98; 14,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 23,92</t>
+          <t>-41,67; 83,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 37,86</t>
+          <t>-46,87; 66,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,05; 150,2</t>
+          <t>-52,5; 45,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-37,65; 71,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,52; 206,52</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 135,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 218,9</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-23,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>-11,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 14,42</t>
+          <t>-8,27; 10,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 13,03</t>
+          <t>-22,06; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 13,11</t>
+          <t>-15,27; 5,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 11,6</t>
+          <t>-17,66; 3,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 27,27</t>
+          <t>-28,41; 11,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 38,26</t>
+          <t>-7,34; 13,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 34,49</t>
+          <t>-6,26; 11,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 37,89</t>
+          <t>-28,34; 58,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 32,82</t>
+          <t>-54,11; 18,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 110,7</t>
+          <t>-41,76; 23,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-45,75; 14,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-72,07; 133,76</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 85,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-35,01; 146,23</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-21,0%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>-11,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-31,62%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-11,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,06%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 14,98</t>
+          <t>-4,73; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 10,41</t>
+          <t>-8,69; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 10,03</t>
+          <t>-8,89; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 3,75</t>
+          <t>-14,42; 0,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 20,2</t>
+          <t>-14,04; 5,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 88,92</t>
+          <t>-9,44; 7,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 62,22</t>
+          <t>-8,52; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 48,63</t>
+          <t>-28,33; 72,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 16,44</t>
+          <t>-45,89; 46,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 82,44</t>
+          <t>-39,4; 38,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-55,17; 0,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-60,43; 64,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-35,7; 47,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-55,69; 53,6</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-13,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-24,6%</t>
+          <t>-31,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-38,63%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 14,43</t>
+          <t>-6,91; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 13,15</t>
+          <t>-11,01; 2,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 6,65</t>
+          <t>-9,97; 1,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 14,2</t>
+          <t>-4,63; 5,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 3,84</t>
+          <t>-8,9; 7,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 94,07</t>
+          <t>-18,28; -1,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 77,36</t>
+          <t>-2,98; 8,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 44,87</t>
+          <t>-45,92; 33,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 97,83</t>
+          <t>-54,43; 22,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 11,81</t>
+          <t>-57,02; 13,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,46; 63,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-58,04; 134,36</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-61,58; -8,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-26,4; 143,17</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-28,78%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-51,35%</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-21,01%</t>
+          <t>-59,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>-63,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-29,34%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-27,92%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-19,49%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>73,24%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 7,47</t>
+          <t>-11,59; -0,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 1,25</t>
+          <t>-7,67; -0,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 7,97</t>
+          <t>-6,33; 1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 10,71</t>
+          <t>-6,03; 2,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,25</t>
+          <t>-3,24; 4,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 62,14</t>
+          <t>-7,38; 3,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-85,4; 17,61</t>
+          <t>-1,61; 5,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 60,74</t>
+          <t>-92,56; 3,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 70,34</t>
+          <t>-88,59; 5,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 98,73</t>
+          <t>-67,27; 51,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-63,59; 60,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-71,13; 282,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-67,12; 76,17</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-44,24; 548,96</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1468,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1246,12 +1478,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1261,27 +1493,47 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1304,40 +1556,60 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0,42; 4,1</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,05</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 0,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-21,08%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,77</t>
+          <t>-3,33; 1,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,68</t>
+          <t>-7,39; -0,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,09</t>
+          <t>-5,8; -0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,57</t>
+          <t>-6,82; -0,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 11,1</t>
+          <t>-5,75; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 47,19</t>
+          <t>-5,49; 1,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 23,51</t>
+          <t>-1,96; 3,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 22,19</t>
+          <t>-25,57; 14,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 15,47</t>
+          <t>-44,22; -4,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 38,12</t>
+          <t>-35,99; -1,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-38,02; -2,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-41,43; 44,94</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-30,55; 8,71</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 47,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
